--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N2">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O2">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P2">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q2">
-        <v>481.2513540389804</v>
+        <v>74.39338317018799</v>
       </c>
       <c r="R2">
-        <v>4331.262186350824</v>
+        <v>669.5404485316919</v>
       </c>
       <c r="S2">
-        <v>0.04712737166270233</v>
+        <v>0.009040482211290999</v>
       </c>
       <c r="T2">
-        <v>0.04712737166270235</v>
+        <v>0.009040482211291001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N3">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q3">
-        <v>2706.013046747787</v>
+        <v>939.5955943090884</v>
       </c>
       <c r="R3">
-        <v>24354.11742073008</v>
+        <v>8456.360348781795</v>
       </c>
       <c r="S3">
-        <v>0.2649910104312662</v>
+        <v>0.1141821610226581</v>
       </c>
       <c r="T3">
-        <v>0.2649910104312662</v>
+        <v>0.1141821610226581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N4">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q4">
-        <v>3461.079433905162</v>
+        <v>2333.474556913168</v>
       </c>
       <c r="R4">
-        <v>31149.71490514646</v>
+        <v>21001.27101221852</v>
       </c>
       <c r="S4">
-        <v>0.3389321930563799</v>
+        <v>0.2835700478094057</v>
       </c>
       <c r="T4">
-        <v>0.33893219305638</v>
+        <v>0.2835700478094058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N5">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O5">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P5">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q5">
-        <v>150.1918391526</v>
+        <v>66.86480692079999</v>
       </c>
       <c r="R5">
-        <v>1351.7265523734</v>
+        <v>601.7832622871999</v>
       </c>
       <c r="S5">
-        <v>0.01470779576004283</v>
+        <v>0.008125589558765219</v>
       </c>
       <c r="T5">
-        <v>0.01470779576004284</v>
+        <v>0.008125589558765219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N6">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q6">
-        <v>844.5089511978002</v>
+        <v>844.5089511977998</v>
       </c>
       <c r="R6">
-        <v>7600.580560780202</v>
+        <v>7600.580560780199</v>
       </c>
       <c r="S6">
-        <v>0.0827000004915394</v>
+        <v>0.1026269787074188</v>
       </c>
       <c r="T6">
-        <v>0.0827000004915394</v>
+        <v>0.1026269787074188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N7">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q7">
-        <v>1080.1546453194</v>
+        <v>2097.3280022184</v>
       </c>
       <c r="R7">
-        <v>9721.391807874601</v>
+        <v>18875.9520199656</v>
       </c>
       <c r="S7">
-        <v>0.1057760128796201</v>
+        <v>0.254872889056835</v>
       </c>
       <c r="T7">
-        <v>0.1057760128796201</v>
+        <v>0.254872889056835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N8">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O8">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P8">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q8">
-        <v>107.7487719300908</v>
+        <v>41.6196855645</v>
       </c>
       <c r="R8">
-        <v>969.7389473708171</v>
+        <v>374.5771700805</v>
       </c>
       <c r="S8">
-        <v>0.01055148495340719</v>
+        <v>0.005057735123090467</v>
       </c>
       <c r="T8">
-        <v>0.01055148495340719</v>
+        <v>0.005057735123090467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N9">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O9">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P9">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q9">
-        <v>605.8571683317502</v>
+        <v>525.6606370955416</v>
       </c>
       <c r="R9">
-        <v>5452.714514985752</v>
+        <v>4730.945733859874</v>
       </c>
       <c r="S9">
-        <v>0.05932961166104088</v>
+        <v>0.06387968171801763</v>
       </c>
       <c r="T9">
-        <v>0.0593296116610409</v>
+        <v>0.06387968171801764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N10">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O10">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P10">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q10">
-        <v>774.9111881471582</v>
+        <v>1305.471981416833</v>
       </c>
       <c r="R10">
-        <v>6974.200693324424</v>
+        <v>11749.2478327515</v>
       </c>
       <c r="S10">
-        <v>0.07588451910400104</v>
+        <v>0.158644434792518</v>
       </c>
       <c r="T10">
-        <v>0.07588451910400106</v>
+        <v>0.1586444347925181</v>
       </c>
     </row>
   </sheetData>
